--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -98,9 +98,6 @@
     <t>chú ý khi SX :</t>
   </si>
   <si>
-    <t xml:space="preserve">Khách hàng: ${orderItem.order.customer}  </t>
-  </si>
-  <si>
     <t>${orderItem.thickness}x${orderItem.width}/${orderItem.blowingWidth}x${orderItem.length}</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>${orderItem.totalWeight} KG</t>
   </si>
   <si>
-    <t>${orderItem.order.orderName}</t>
-  </si>
-  <si>
     <t xml:space="preserve">${order.orderItem.lengthPerRoll} M  = </t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>${orderItem.productName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách hàng: ${orderItem.productionSheetOrder.customer}  </t>
+  </si>
+  <si>
+    <t>${orderItem.productionSheetOrder.orderName}</t>
   </si>
 </sst>
 </file>
@@ -443,23 +443,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,27 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -828,7 +828,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -849,76 +849,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="35"/>
+      <c r="A3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -937,10 +937,10 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="35"/>
+      <c r="A4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
@@ -959,10 +959,10 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -981,10 +981,10 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
@@ -1003,10 +1003,10 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9">
@@ -1025,10 +1025,10 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1119,11 +1119,11 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>29</v>
+      <c r="B12" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -1143,8 +1143,8 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
@@ -1163,11 +1163,11 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>30</v>
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -1187,8 +1187,8 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5">
@@ -1207,10 +1207,10 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
@@ -1229,8 +1229,8 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -1249,11 +1249,11 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>35</v>
+      <c r="A18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
@@ -1293,10 +1293,10 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="28"/>
+      <c r="A20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="35"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5">
@@ -1315,8 +1315,8 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5">
@@ -1355,8 +1355,8 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -1375,10 +1375,10 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5">
@@ -1397,10 +1397,10 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
@@ -1419,10 +1419,10 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5">
@@ -1441,10 +1441,10 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5">
@@ -1463,10 +1463,10 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9">
@@ -1485,8 +1485,8 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -1505,8 +1505,8 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5">
@@ -1525,8 +1525,8 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9">
@@ -1545,8 +1545,8 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5">
@@ -1565,8 +1565,8 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5">
@@ -1585,8 +1585,8 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9">
@@ -1605,8 +1605,8 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -1625,10 +1625,10 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5">
@@ -1647,8 +1647,8 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9">
@@ -1667,8 +1667,8 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5">
@@ -1687,8 +1687,8 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5">
@@ -1707,8 +1707,8 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9">
@@ -1727,8 +1727,8 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -1787,8 +1787,8 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5">
@@ -1807,10 +1807,10 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5">
@@ -1829,10 +1829,10 @@
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9">
@@ -1851,8 +1851,8 @@
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5">
@@ -1871,8 +1871,8 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5">
@@ -1891,8 +1891,8 @@
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9">
@@ -1911,8 +1911,8 @@
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5">
@@ -1931,8 +1931,8 @@
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5">
@@ -1951,8 +1951,8 @@
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9">
@@ -1972,21 +1972,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A30:B30"/>
@@ -2003,26 +2008,21 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -74,18 +74,9 @@
     <t>Khối lượng cần sản xuất</t>
   </si>
   <si>
-    <t>Ngày giao kế hoạch :</t>
-  </si>
-  <si>
-    <t>_____/_____/2015</t>
-  </si>
-  <si>
     <t>Ngày hoàn thành :</t>
   </si>
   <si>
-    <t>____/_____/ 2015</t>
-  </si>
-  <si>
     <t>Thông số chạy máy</t>
   </si>
   <si>
@@ -135,6 +126,15 @@
   </si>
   <si>
     <t>${orderItem.productionSheetOrder.orderName}</t>
+  </si>
+  <si>
+    <t>LICH ETD:</t>
+  </si>
+  <si>
+    <t>_____/_____/ _____/</t>
+  </si>
+  <si>
+    <t>____/_____/ _____/</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -405,6 +418,26 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -415,7 +448,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +476,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -455,11 +494,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -467,59 +554,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -828,7 +875,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -849,76 +896,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="23" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="24"/>
+      <c r="A3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="35"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -937,10 +984,10 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="24"/>
+      <c r="A4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="35"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
@@ -959,10 +1006,10 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -981,10 +1028,10 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
@@ -1003,10 +1050,10 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9">
@@ -1025,10 +1072,10 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="20"/>
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
@@ -1051,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1075,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -1099,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1119,11 +1166,11 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>28</v>
+      <c r="B12" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -1143,8 +1190,8 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
@@ -1163,11 +1210,11 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -1187,8 +1234,8 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5">
@@ -1207,10 +1254,10 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
@@ -1229,8 +1276,8 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -1249,11 +1296,11 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -1273,8 +1320,8 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
@@ -1293,10 +1340,10 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="35"/>
+      <c r="A20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="28"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5">
@@ -1315,8 +1362,8 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5">
@@ -1334,9 +1381,9 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9">
@@ -1354,9 +1401,11 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="43"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -1375,10 +1424,8 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5">
@@ -1397,10 +1444,10 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="18"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
@@ -1419,10 +1466,10 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="18"/>
+      <c r="A26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5">
@@ -1441,10 +1488,10 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5">
@@ -1463,10 +1510,10 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="18"/>
+      <c r="A28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9">
@@ -1485,8 +1532,8 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -1505,8 +1552,8 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5">
@@ -1525,8 +1572,8 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9">
@@ -1545,8 +1592,8 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5">
@@ -1565,8 +1612,8 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5">
@@ -1585,8 +1632,8 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9">
@@ -1605,8 +1652,8 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -1625,10 +1672,10 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5">
@@ -1647,8 +1694,8 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9">
@@ -1667,8 +1714,8 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5">
@@ -1687,8 +1734,8 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5">
@@ -1707,8 +1754,8 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9">
@@ -1727,8 +1774,8 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -1787,8 +1834,8 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5">
@@ -1807,10 +1854,10 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="18"/>
+      <c r="A45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5">
@@ -1829,10 +1876,10 @@
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="20"/>
+      <c r="A46" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9">
@@ -1851,8 +1898,8 @@
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5">
@@ -1871,8 +1918,8 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5">
@@ -1891,8 +1938,8 @@
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9">
@@ -1911,8 +1958,8 @@
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5">
@@ -1931,8 +1978,8 @@
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5">
@@ -1951,8 +1998,8 @@
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9">
@@ -1971,15 +2018,37 @@
       <c r="N52" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+  <mergeCells count="50">
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -1992,37 +2061,14 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -125,9 +125,6 @@
     <t xml:space="preserve">Khách hàng: ${orderItem.productionSheetOrder.customer}  </t>
   </si>
   <si>
-    <t>${orderItem.productionSheetOrder.orderName}</t>
-  </si>
-  <si>
     <t>LICH ETD:</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>____/_____/ _____/</t>
+  </si>
+  <si>
+    <t>${orderItem.productionSheetOrder.orderNumber} : ${orderItem.productionSheetOrder.orderName}</t>
   </si>
 </sst>
 </file>
@@ -476,23 +476,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,41 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -875,7 +875,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,76 +896,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -984,10 +984,10 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="35"/>
+      <c r="A4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="30"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
@@ -1006,10 +1006,10 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -1028,10 +1028,10 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
@@ -1050,10 +1050,10 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9">
@@ -1072,10 +1072,10 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
@@ -1166,10 +1166,10 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="7"/>
@@ -1190,8 +1190,8 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
@@ -1210,10 +1210,10 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7"/>
@@ -1234,8 +1234,8 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5">
@@ -1254,10 +1254,10 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
@@ -1276,8 +1276,8 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -1296,10 +1296,10 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
@@ -1320,8 +1320,8 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
@@ -1340,10 +1340,10 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5">
@@ -1362,8 +1362,8 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5">
@@ -1382,8 +1382,8 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9">
@@ -1402,10 +1402,10 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="43"/>
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -1424,8 +1424,8 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5">
@@ -1444,10 +1444,10 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="18"/>
+      <c r="A25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
@@ -1466,10 +1466,10 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5">
@@ -1488,10 +1488,10 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="A27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5">
@@ -1510,10 +1510,10 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9">
@@ -1532,8 +1532,8 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -1552,8 +1552,8 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5">
@@ -1572,8 +1572,8 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9">
@@ -1592,8 +1592,8 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5">
@@ -1612,8 +1612,8 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5">
@@ -1632,8 +1632,8 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9">
@@ -1652,8 +1652,8 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -1672,10 +1672,10 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5">
@@ -1694,8 +1694,8 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9">
@@ -1714,8 +1714,8 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5">
@@ -1734,8 +1734,8 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5">
@@ -1754,8 +1754,8 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9">
@@ -1774,8 +1774,8 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -1834,8 +1834,8 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5">
@@ -1854,10 +1854,10 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5">
@@ -1876,10 +1876,10 @@
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9">
@@ -1898,8 +1898,8 @@
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5">
@@ -1918,8 +1918,8 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5">
@@ -1938,8 +1938,8 @@
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9">
@@ -1958,8 +1958,8 @@
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5">
@@ -1978,8 +1978,8 @@
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5">
@@ -1998,8 +1998,8 @@
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9">
@@ -2019,36 +2019,14 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -2061,20 +2039,42 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LCong ty TNHH AAB PLASTIC&amp;CTu ngay     /    /  2015 den ngay     /    /   2015</oddHeader>
+    <oddHeader xml:space="preserve">&amp;LCong ty TNHH AAB PLASTIC&amp;CTu ngay     /    /         den ngay     /    /         </oddHeader>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -119,9 +119,6 @@
     <t>52 cuộn</t>
   </si>
   <si>
-    <t>${orderItem.productName}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khách hàng: ${orderItem.productionSheetOrder.customer}  </t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>${orderItem.productionSheetOrder.orderNumber} : ${orderItem.productionSheetOrder.orderName}</t>
+  </si>
+  <si>
+    <t>${orderItem.productionSheetOrder.orderNumber} - ${orderItem.productName}</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,7 +963,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="3"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="7"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="7"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="7"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>

--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -119,6 +119,9 @@
     <t>52 cuộn</t>
   </si>
   <si>
+    <t>${orderItem.productName}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Khách hàng: ${orderItem.productionSheetOrder.customer}  </t>
   </si>
   <si>
@@ -132,9 +135,6 @@
   </si>
   <si>
     <t>${orderItem.productionSheetOrder.orderNumber} : ${orderItem.productionSheetOrder.orderName}</t>
-  </si>
-  <si>
-    <t>${orderItem.productionSheetOrder.orderNumber} - ${orderItem.productName}</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="3"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="7"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="7"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="7"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>

--- a/src/main/resources/excels/production-order.xlsx
+++ b/src/main/resources/excels/production-order.xlsx
@@ -23,8 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hoang Giang Pham</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Hoang Giang Pham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
   <si>
     <t>Thông tin Sản Phẩm và Yêu cầu sản xuất</t>
   </si>
@@ -135,6 +167,306 @@
   </si>
   <si>
     <t>${orderItem.productionSheetOrder.orderNumber} : ${orderItem.productionSheetOrder.orderName}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[0]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[1]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[2]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[3]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[4]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[5]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[6]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[7]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[8]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[9]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[10]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[11]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[12]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[13]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[14]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[15]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[16]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[17]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[18]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[19]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[20]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[21]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[22]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[23]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[24]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[25]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[26]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[27]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[28]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[29]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[30]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[31]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[32]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[33]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[34]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[35]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[36]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[37]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[38]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[40]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[41]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[42]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[43]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[44]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[45]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[46]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[47]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[48]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[49]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[50]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[51]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[52]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[53]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[54]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[55]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[56]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[57]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[58]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[59]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[60]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[61]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[62]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[63]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[64]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[65]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[66]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[67]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[68]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[69]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[70]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[71]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[72]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[73]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[74]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[75]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[76]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[77]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[78]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[79]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[80]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[81]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[82]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[83]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[85]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[86]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[87]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[88]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[89]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[90]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[91]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[92]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[93]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[94]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[95]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[96]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[97]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[98]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[99]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[39]}</t>
+  </si>
+  <si>
+    <t>${orderItem.rollNumbers[84]}</t>
   </si>
 </sst>
 </file>
@@ -144,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +536,17 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -448,7 +791,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,9 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -478,6 +818,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -490,30 +866,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,36 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,270 +1236,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>1</v>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="6"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5">
-        <v>51</v>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="9">
-        <v>2</v>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9">
-        <v>52</v>
+      <c r="K4" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="5">
-        <v>3</v>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="5">
-        <v>53</v>
+      <c r="K5" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5">
-        <v>4</v>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9">
-        <v>54</v>
+      <c r="K6" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9">
-        <v>5</v>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="5">
-        <v>55</v>
+      <c r="K7" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5">
-        <v>6</v>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="9">
-        <v>56</v>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5">
-        <v>7</v>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="5">
-        <v>57</v>
+      <c r="K9" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9">
-        <v>8</v>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="9">
-        <v>58</v>
+      <c r="K10" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5">
-        <v>9</v>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="5">
-        <v>59</v>
+      <c r="K11" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1174,16 +1514,16 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5">
-        <v>10</v>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="9">
-        <v>60</v>
+      <c r="K12" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1194,16 +1534,16 @@
       <c r="B13" s="37"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9">
-        <v>11</v>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="5">
-        <v>61</v>
+      <c r="K13" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1213,805 +1553,805 @@
       <c r="A14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="5">
-        <v>12</v>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="9">
-        <v>62</v>
+      <c r="K14" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="5">
-        <v>13</v>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="5">
-        <v>63</v>
+      <c r="K15" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9">
-        <v>14</v>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="5">
-        <v>64</v>
+      <c r="K16" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="5">
-        <v>15</v>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="9">
-        <v>65</v>
+      <c r="K17" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5">
-        <v>16</v>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="5">
-        <v>66</v>
+      <c r="K18" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9">
-        <v>17</v>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="9">
-        <v>67</v>
+      <c r="K19" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5">
-        <v>18</v>
+      <c r="E20" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="5">
-        <v>68</v>
+      <c r="K20" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="5">
-        <v>19</v>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="9">
-        <v>69</v>
+      <c r="K21" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9">
-        <v>20</v>
+      <c r="E22" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="5">
-        <v>70</v>
+      <c r="K22" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="5">
-        <v>21</v>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="9">
-        <v>71</v>
+      <c r="K23" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="5">
-        <v>22</v>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="5">
-        <v>72</v>
+      <c r="K24" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9">
-        <v>23</v>
+      <c r="E25" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="9">
-        <v>73</v>
+      <c r="K25" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="5">
-        <v>24</v>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="5">
-        <v>74</v>
+      <c r="K26" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="5">
-        <v>25</v>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="9">
-        <v>75</v>
+      <c r="K27" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9">
-        <v>26</v>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="5">
-        <v>76</v>
+      <c r="K28" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="5">
-        <v>27</v>
+      <c r="E29" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="5">
-        <v>77</v>
+      <c r="K29" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5">
-        <v>28</v>
+      <c r="E30" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="9">
-        <v>78</v>
+      <c r="K30" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9">
-        <v>29</v>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="5">
-        <v>79</v>
+      <c r="K31" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="5">
-        <v>30</v>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="9">
-        <v>80</v>
+      <c r="K32" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="5">
-        <v>31</v>
+      <c r="E33" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="5">
-        <v>81</v>
+      <c r="K33" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="9">
-        <v>32</v>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="9">
-        <v>82</v>
+      <c r="K34" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="5">
-        <v>33</v>
+      <c r="E35" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="5">
-        <v>83</v>
+      <c r="K35" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="5">
-        <v>34</v>
+      <c r="E36" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="9">
-        <v>84</v>
+      <c r="K36" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="9">
-        <v>35</v>
+      <c r="E37" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="5">
-        <v>85</v>
+      <c r="K37" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="5">
-        <v>36</v>
+      <c r="E38" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="9">
-        <v>86</v>
+      <c r="K38" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="5">
-        <v>37</v>
+      <c r="E39" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="5">
-        <v>87</v>
+      <c r="K39" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="9">
-        <v>38</v>
+      <c r="E40" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="9">
-        <v>88</v>
+      <c r="K40" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="5">
-        <v>39</v>
+      <c r="E41" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="5">
-        <v>89</v>
+      <c r="K41" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="5">
-        <v>40</v>
+      <c r="E42" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="5">
-        <v>90</v>
+      <c r="K42" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="9">
-        <v>41</v>
+      <c r="E43" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="9">
-        <v>91</v>
+      <c r="K43" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="5">
-        <v>42</v>
+      <c r="E44" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="5">
-        <v>92</v>
+      <c r="K44" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="5">
-        <v>43</v>
+      <c r="E45" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="9">
-        <v>93</v>
+      <c r="K45" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="9">
-        <v>44</v>
+      <c r="E46" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="5">
-        <v>94</v>
+      <c r="K46" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="5">
-        <v>45</v>
+      <c r="E47" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="9">
-        <v>95</v>
+      <c r="K47" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="5">
-        <v>46</v>
+      <c r="E48" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="5">
-        <v>96</v>
+      <c r="K48" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="9">
-        <v>47</v>
+      <c r="E49" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="9">
-        <v>97</v>
+      <c r="K49" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="5">
-        <v>48</v>
+      <c r="E50" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="5">
-        <v>98</v>
+      <c r="K50" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="5">
-        <v>49</v>
+      <c r="E51" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="9">
-        <v>99</v>
+      <c r="K51" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="9">
-        <v>50</v>
+      <c r="E52" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="5">
-        <v>100</v>
+      <c r="K52" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -2019,14 +2359,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B24"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -2039,36 +2401,14 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.3" footer="0.3"/>
@@ -2076,6 +2416,7 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LCong ty TNHH AAB PLASTIC&amp;CTu ngay     /    /         den ngay     /    /         </oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
